--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H2">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I2">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J2">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>142.158333</v>
+        <v>119.0164006666667</v>
       </c>
       <c r="N2">
-        <v>426.474999</v>
+        <v>357.049202</v>
       </c>
       <c r="O2">
-        <v>0.9500780504241082</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="P2">
-        <v>0.9500780504241081</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="Q2">
-        <v>6717.927724431115</v>
+        <v>8250.163574865834</v>
       </c>
       <c r="R2">
-        <v>60461.34951988003</v>
+        <v>74251.47217379251</v>
       </c>
       <c r="S2">
-        <v>0.5969062312103566</v>
+        <v>0.6168150627772875</v>
       </c>
       <c r="T2">
-        <v>0.5969062312103565</v>
+        <v>0.6168150627772874</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H3">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I3">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J3">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>0.6831970000000001</v>
       </c>
       <c r="O3">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330732</v>
       </c>
       <c r="P3">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330731</v>
       </c>
       <c r="Q3">
-        <v>10.76186899187534</v>
+        <v>15.78630332258133</v>
       </c>
       <c r="R3">
-        <v>96.85682092687802</v>
+        <v>142.076729903232</v>
       </c>
       <c r="S3">
-        <v>0.0009562214605790338</v>
+        <v>0.001180246862571771</v>
       </c>
       <c r="T3">
-        <v>0.0009562214605790336</v>
+        <v>0.001180246862571771</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H4">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I4">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J4">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.576418</v>
+        <v>7.816301333333333</v>
       </c>
       <c r="N4">
-        <v>13.729254</v>
+        <v>23.448904</v>
       </c>
       <c r="O4">
-        <v>0.03058529317001626</v>
+        <v>0.06026442877207647</v>
       </c>
       <c r="P4">
-        <v>0.03058529317001625</v>
+        <v>0.06026442877207646</v>
       </c>
       <c r="Q4">
-        <v>216.266220291044</v>
+        <v>541.8225067236693</v>
       </c>
       <c r="R4">
-        <v>1946.395982619396</v>
+        <v>4876.402560513025</v>
       </c>
       <c r="S4">
-        <v>0.01921584449659548</v>
+        <v>0.04050880694257535</v>
       </c>
       <c r="T4">
-        <v>0.01921584449659548</v>
+        <v>0.04050880694257534</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H5">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I5">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J5">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1328223333333333</v>
+        <v>0.105045</v>
       </c>
       <c r="N5">
-        <v>0.398467</v>
+        <v>0.315135</v>
       </c>
       <c r="O5">
-        <v>0.0008876833376071904</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="P5">
-        <v>0.0008876833376071903</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="Q5">
-        <v>6.276739581095335</v>
+        <v>7.28167233984</v>
       </c>
       <c r="R5">
-        <v>56.49065622985801</v>
+        <v>65.53505105856</v>
       </c>
       <c r="S5">
-        <v>0.0005577054593807435</v>
+        <v>0.0005444068036548098</v>
       </c>
       <c r="T5">
-        <v>0.0005577054593807435</v>
+        <v>0.0005444068036548097</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.25665800000001</v>
+        <v>69.319552</v>
       </c>
       <c r="H6">
-        <v>141.769974</v>
+        <v>207.958656</v>
       </c>
       <c r="I6">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940576</v>
       </c>
       <c r="J6">
-        <v>0.6282707309614213</v>
+        <v>0.6721843675940575</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.532751666666667</v>
+        <v>2.534602333333333</v>
       </c>
       <c r="N6">
-        <v>7.598255</v>
+        <v>7.603807</v>
       </c>
       <c r="O6">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="P6">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="Q6">
-        <v>119.6893793105967</v>
+        <v>175.6974982448213</v>
       </c>
       <c r="R6">
-        <v>1077.20441379537</v>
+        <v>1581.277484203392</v>
       </c>
       <c r="S6">
-        <v>0.01063472833450959</v>
+        <v>0.01313584420796823</v>
       </c>
       <c r="T6">
-        <v>0.01063472833450959</v>
+        <v>0.01313584420796823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I7">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J7">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>142.158333</v>
+        <v>119.0164006666667</v>
       </c>
       <c r="N7">
-        <v>426.474999</v>
+        <v>357.049202</v>
       </c>
       <c r="O7">
-        <v>0.9500780504241082</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="P7">
-        <v>0.9500780504241081</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="Q7">
-        <v>1604.359378835315</v>
+        <v>1343.185971692481</v>
       </c>
       <c r="R7">
-        <v>14439.23440951783</v>
+        <v>12088.67374523233</v>
       </c>
       <c r="S7">
-        <v>0.142551713803779</v>
+        <v>0.1004219288421251</v>
       </c>
       <c r="T7">
-        <v>0.142551713803779</v>
+        <v>0.1004219288421251</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I8">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J8">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>0.6831970000000001</v>
       </c>
       <c r="O8">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330732</v>
       </c>
       <c r="P8">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330731</v>
       </c>
       <c r="Q8">
         <v>2.570123728500556</v>
@@ -948,10 +948,10 @@
         <v>23.131113556505</v>
       </c>
       <c r="S8">
-        <v>0.0002283625146701751</v>
+        <v>0.0001921526784959833</v>
       </c>
       <c r="T8">
-        <v>0.000228362514670175</v>
+        <v>0.0001921526784959832</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I9">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J9">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.576418</v>
+        <v>7.816301333333333</v>
       </c>
       <c r="N9">
-        <v>13.729254</v>
+        <v>23.448904</v>
       </c>
       <c r="O9">
-        <v>0.03058529317001626</v>
+        <v>0.06026442877207647</v>
       </c>
       <c r="P9">
-        <v>0.03058529317001625</v>
+        <v>0.06026442877207646</v>
       </c>
       <c r="Q9">
-        <v>51.64817977832333</v>
+        <v>88.21260131079553</v>
       </c>
       <c r="R9">
-        <v>464.83361800491</v>
+        <v>793.9134117971598</v>
       </c>
       <c r="S9">
-        <v>0.004589081872410973</v>
+        <v>0.00659512514164315</v>
       </c>
       <c r="T9">
-        <v>0.004589081872410973</v>
+        <v>0.006595125141643147</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I10">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J10">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1328223333333333</v>
+        <v>0.105045</v>
       </c>
       <c r="N10">
-        <v>0.398467</v>
+        <v>0.315135</v>
       </c>
       <c r="O10">
-        <v>0.0008876833376071904</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="P10">
-        <v>0.0008876833376071903</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="Q10">
-        <v>1.498995885117222</v>
+        <v>1.185508632475</v>
       </c>
       <c r="R10">
-        <v>13.490962966055</v>
+        <v>10.669577692275</v>
       </c>
       <c r="S10">
-        <v>0.0001331898795414509</v>
+        <v>8.863334343949355E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001331898795414509</v>
+        <v>8.863334343949352E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>33.85716499999999</v>
       </c>
       <c r="I11">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="J11">
-        <v>0.1500421083721963</v>
+        <v>0.1094364499261462</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.532751666666667</v>
+        <v>2.534602333333333</v>
       </c>
       <c r="N11">
-        <v>7.598255</v>
+        <v>7.603807</v>
       </c>
       <c r="O11">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="P11">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="Q11">
-        <v>28.58393036078611</v>
+        <v>28.60481646968389</v>
       </c>
       <c r="R11">
-        <v>257.2553732470749</v>
+        <v>257.443348227155</v>
       </c>
       <c r="S11">
-        <v>0.002539760301794696</v>
+        <v>0.00213860992044243</v>
       </c>
       <c r="T11">
-        <v>0.002539760301794696</v>
+        <v>0.002138609920442429</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H12">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I12">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J12">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>142.158333</v>
+        <v>119.0164006666667</v>
       </c>
       <c r="N12">
-        <v>426.474999</v>
+        <v>357.049202</v>
       </c>
       <c r="O12">
-        <v>0.9500780504241082</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="P12">
-        <v>0.9500780504241081</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="Q12">
-        <v>34.182966278181</v>
+        <v>4.160297629570445</v>
       </c>
       <c r="R12">
-        <v>307.646696503629</v>
+        <v>37.442678666134</v>
       </c>
       <c r="S12">
-        <v>0.003037249939218061</v>
+        <v>0.0003110404078985095</v>
       </c>
       <c r="T12">
-        <v>0.003037249939218061</v>
+        <v>0.0003110404078985094</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H13">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I13">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J13">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>0.6831970000000001</v>
       </c>
       <c r="O13">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330732</v>
       </c>
       <c r="P13">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330731</v>
       </c>
       <c r="Q13">
-        <v>0.05475983367633334</v>
+        <v>0.007960535533222223</v>
       </c>
       <c r="R13">
-        <v>0.492838503087</v>
+        <v>0.071644819799</v>
       </c>
       <c r="S13">
-        <v>4.865560822063479E-06</v>
+        <v>5.951613177251633E-07</v>
       </c>
       <c r="T13">
-        <v>4.865560822063479E-06</v>
+        <v>5.95161317725163E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H14">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I14">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J14">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.576418</v>
+        <v>7.816301333333333</v>
       </c>
       <c r="N14">
-        <v>13.729254</v>
+        <v>23.448904</v>
       </c>
       <c r="O14">
-        <v>0.03058529317001626</v>
+        <v>0.06026442877207647</v>
       </c>
       <c r="P14">
-        <v>0.03058529317001625</v>
+        <v>0.06026442877207646</v>
       </c>
       <c r="Q14">
-        <v>1.100431743026</v>
+        <v>0.2732240239742222</v>
       </c>
       <c r="R14">
-        <v>9.903885687234</v>
+        <v>2.459016215768</v>
       </c>
       <c r="S14">
-        <v>9.777636666811814E-05</v>
+        <v>2.042731540661164E-05</v>
       </c>
       <c r="T14">
-        <v>9.777636666811814E-05</v>
+        <v>2.042731540661163E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H15">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I15">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J15">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1328223333333333</v>
+        <v>0.105045</v>
       </c>
       <c r="N15">
-        <v>0.398467</v>
+        <v>0.315135</v>
       </c>
       <c r="O15">
-        <v>0.0008876833376071904</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="P15">
-        <v>0.0008876833376071903</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="Q15">
-        <v>0.03193805980633334</v>
+        <v>0.003671918005</v>
       </c>
       <c r="R15">
-        <v>0.287442538257</v>
+        <v>0.033047262045</v>
       </c>
       <c r="S15">
-        <v>2.837783866271615E-06</v>
+        <v>2.74527203517169E-07</v>
       </c>
       <c r="T15">
-        <v>2.837783866271615E-06</v>
+        <v>2.745272035171689E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.240457</v>
+        <v>0.03495566666666667</v>
       </c>
       <c r="H16">
-        <v>0.721371</v>
+        <v>0.104867</v>
       </c>
       <c r="I16">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114707</v>
       </c>
       <c r="J16">
-        <v>0.003196842551895872</v>
+        <v>0.0003389614043114706</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.532751666666667</v>
+        <v>2.534602333333333</v>
       </c>
       <c r="N16">
-        <v>7.598255</v>
+        <v>7.603807</v>
       </c>
       <c r="O16">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="P16">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="Q16">
-        <v>0.6090178675116666</v>
+        <v>0.08859871429655557</v>
       </c>
       <c r="R16">
-        <v>5.481160807605</v>
+        <v>0.7973884286689999</v>
       </c>
       <c r="S16">
-        <v>5.411290132135817E-05</v>
+        <v>6.623992485107253E-06</v>
       </c>
       <c r="T16">
-        <v>5.411290132135818E-05</v>
+        <v>6.623992485107251E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.24228466666667</v>
+        <v>22.33376</v>
       </c>
       <c r="H17">
-        <v>48.726854</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I17">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J17">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>142.158333</v>
+        <v>119.0164006666667</v>
       </c>
       <c r="N17">
-        <v>426.474999</v>
+        <v>357.049202</v>
       </c>
       <c r="O17">
-        <v>0.9500780504241082</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="P17">
-        <v>0.9500780504241081</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="Q17">
-        <v>2308.976112324794</v>
+        <v>2658.083728553173</v>
       </c>
       <c r="R17">
-        <v>20780.78501092314</v>
+        <v>23922.75355697856</v>
       </c>
       <c r="S17">
-        <v>0.2051588355364816</v>
+        <v>0.198728918162265</v>
       </c>
       <c r="T17">
-        <v>0.2051588355364817</v>
+        <v>0.198728918162265</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>16.24228466666667</v>
+        <v>22.33376</v>
       </c>
       <c r="H18">
-        <v>48.726854</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I18">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J18">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>0.6831970000000001</v>
       </c>
       <c r="O18">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330732</v>
       </c>
       <c r="P18">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330731</v>
       </c>
       <c r="Q18">
-        <v>3.698893385804222</v>
+        <v>5.086119276906667</v>
       </c>
       <c r="R18">
-        <v>33.290040472238</v>
+        <v>45.77507349216001</v>
       </c>
       <c r="S18">
-        <v>0.0003286567824390045</v>
+        <v>0.0003802585188293041</v>
       </c>
       <c r="T18">
-        <v>0.0003286567824390045</v>
+        <v>0.0003802585188293039</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>16.24228466666667</v>
+        <v>22.33376</v>
       </c>
       <c r="H19">
-        <v>48.726854</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I19">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J19">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.576418</v>
+        <v>7.816301333333333</v>
       </c>
       <c r="N19">
-        <v>13.729254</v>
+        <v>23.448904</v>
       </c>
       <c r="O19">
-        <v>0.03058529317001626</v>
+        <v>0.06026442877207647</v>
       </c>
       <c r="P19">
-        <v>0.03058529317001625</v>
+        <v>0.06026442877207646</v>
       </c>
       <c r="Q19">
-        <v>74.33148390965734</v>
+        <v>174.5673980663467</v>
       </c>
       <c r="R19">
-        <v>668.9833551869161</v>
+        <v>1571.10658259712</v>
       </c>
       <c r="S19">
-        <v>0.006604555413633011</v>
+        <v>0.01305135342106383</v>
       </c>
       <c r="T19">
-        <v>0.006604555413633011</v>
+        <v>0.01305135342106382</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.24228466666667</v>
+        <v>22.33376</v>
       </c>
       <c r="H20">
-        <v>48.726854</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I20">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J20">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1328223333333333</v>
+        <v>0.105045</v>
       </c>
       <c r="N20">
-        <v>0.398467</v>
+        <v>0.315135</v>
       </c>
       <c r="O20">
-        <v>0.0008876833376071904</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="P20">
-        <v>0.0008876833376071903</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="Q20">
-        <v>2.157338148090889</v>
+        <v>2.3460498192</v>
       </c>
       <c r="R20">
-        <v>19.416043332818</v>
+        <v>21.1144483728</v>
       </c>
       <c r="S20">
-        <v>0.0001916853881503034</v>
+        <v>0.0001754000212695207</v>
       </c>
       <c r="T20">
-        <v>0.0001916853881503034</v>
+        <v>0.0001754000212695206</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.24228466666667</v>
+        <v>22.33376</v>
       </c>
       <c r="H21">
-        <v>48.726854</v>
+        <v>67.00128000000001</v>
       </c>
       <c r="I21">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="J21">
-        <v>0.2159389278016687</v>
+        <v>0.2165681096957675</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.532751666666667</v>
+        <v>2.534602333333333</v>
       </c>
       <c r="N21">
-        <v>7.598255</v>
+        <v>7.603807</v>
       </c>
       <c r="O21">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="P21">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="Q21">
-        <v>41.13767355997444</v>
+        <v>56.60720020810668</v>
       </c>
       <c r="R21">
-        <v>370.23906203977</v>
+        <v>509.46480187296</v>
       </c>
       <c r="S21">
-        <v>0.003655194680964756</v>
+        <v>0.004232179572339887</v>
       </c>
       <c r="T21">
-        <v>0.003655194680964756</v>
+        <v>0.004232179572339886</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.191908</v>
+        <v>0.1518126666666667</v>
       </c>
       <c r="H22">
-        <v>0.575724</v>
+        <v>0.455438</v>
       </c>
       <c r="I22">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717238</v>
       </c>
       <c r="J22">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717237</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>142.158333</v>
+        <v>119.0164006666667</v>
       </c>
       <c r="N22">
-        <v>426.474999</v>
+        <v>357.049202</v>
       </c>
       <c r="O22">
-        <v>0.9500780504241082</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="P22">
-        <v>0.9500780504241081</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="Q22">
-        <v>27.281321369364</v>
+        <v>18.06819716227511</v>
       </c>
       <c r="R22">
-        <v>245.531892324276</v>
+        <v>162.613774460476</v>
       </c>
       <c r="S22">
-        <v>0.002424019934272903</v>
+        <v>0.001350850327486067</v>
       </c>
       <c r="T22">
-        <v>0.002424019934272903</v>
+        <v>0.001350850327486066</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.191908</v>
+        <v>0.1518126666666667</v>
       </c>
       <c r="H23">
-        <v>0.575724</v>
+        <v>0.455438</v>
       </c>
       <c r="I23">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717238</v>
       </c>
       <c r="J23">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717237</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>0.6831970000000001</v>
       </c>
       <c r="O23">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330732</v>
       </c>
       <c r="P23">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330731</v>
       </c>
       <c r="Q23">
-        <v>0.04370365662533333</v>
+        <v>0.03457265280955556</v>
       </c>
       <c r="R23">
-        <v>0.393332909628</v>
+        <v>0.311153875286</v>
       </c>
       <c r="S23">
-        <v>3.8831892864028E-06</v>
+        <v>2.584789115947943E-06</v>
       </c>
       <c r="T23">
-        <v>3.8831892864028E-06</v>
+        <v>2.584789115947942E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.191908</v>
+        <v>0.1518126666666667</v>
       </c>
       <c r="H24">
-        <v>0.575724</v>
+        <v>0.455438</v>
       </c>
       <c r="I24">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717238</v>
       </c>
       <c r="J24">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717237</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.576418</v>
+        <v>7.816301333333333</v>
       </c>
       <c r="N24">
-        <v>13.729254</v>
+        <v>23.448904</v>
       </c>
       <c r="O24">
-        <v>0.03058529317001626</v>
+        <v>0.06026442877207647</v>
       </c>
       <c r="P24">
-        <v>0.03058529317001625</v>
+        <v>0.06026442877207646</v>
       </c>
       <c r="Q24">
-        <v>0.878251225544</v>
+        <v>1.186613548883556</v>
       </c>
       <c r="R24">
-        <v>7.904261029896</v>
+        <v>10.679521939952</v>
       </c>
       <c r="S24">
-        <v>7.803502070867231E-05</v>
+        <v>8.871595138753269E-05</v>
       </c>
       <c r="T24">
-        <v>7.803502070867231E-05</v>
+        <v>8.871595138753266E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.191908</v>
+        <v>0.1518126666666667</v>
       </c>
       <c r="H25">
-        <v>0.575724</v>
+        <v>0.455438</v>
       </c>
       <c r="I25">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717238</v>
       </c>
       <c r="J25">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717237</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1328223333333333</v>
+        <v>0.105045</v>
       </c>
       <c r="N25">
-        <v>0.398467</v>
+        <v>0.315135</v>
       </c>
       <c r="O25">
-        <v>0.0008876833376071904</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="P25">
-        <v>0.0008876833376071903</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="Q25">
-        <v>0.02548966834533333</v>
+        <v>0.01594716157</v>
       </c>
       <c r="R25">
-        <v>0.229407015108</v>
+        <v>0.14352445413</v>
       </c>
       <c r="S25">
-        <v>2.26482666842077E-06</v>
+        <v>1.192273265330871E-06</v>
       </c>
       <c r="T25">
-        <v>2.26482666842077E-06</v>
+        <v>1.19227326533087E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.191908</v>
+        <v>0.1518126666666667</v>
       </c>
       <c r="H26">
-        <v>0.575724</v>
+        <v>0.455438</v>
       </c>
       <c r="I26">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717238</v>
       </c>
       <c r="J26">
-        <v>0.002551390312817813</v>
+        <v>0.001472111379717237</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.532751666666667</v>
+        <v>2.534602333333333</v>
       </c>
       <c r="N26">
-        <v>7.598255</v>
+        <v>7.603807</v>
       </c>
       <c r="O26">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="P26">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="Q26">
-        <v>0.4860553068466666</v>
+        <v>0.3847847391628889</v>
       </c>
       <c r="R26">
-        <v>4.37449776162</v>
+        <v>3.463062652466</v>
       </c>
       <c r="S26">
-        <v>4.318734188141415E-05</v>
+        <v>2.876803846235972E-05</v>
       </c>
       <c r="T26">
-        <v>4.318734188141416E-05</v>
+        <v>2.876803846235972E-05</v>
       </c>
     </row>
   </sheetData>
